--- a/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
+++ b/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -533,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
+++ b/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
@@ -544,7 +544,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
+++ b/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M16"/>
+  <oleSize ref="A1:J12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>amy.k@tetherfi.com</t>
-  </si>
-  <si>
     <t>ExpSch2</t>
   </si>
   <si>
@@ -106,43 +103,22 @@
     <t>ErrorMsg3</t>
   </si>
   <si>
-    <t>Select a Report</t>
-  </si>
-  <si>
-    <t>Enter a Name</t>
-  </si>
-  <si>
-    <t>Select a Schedule Frequency</t>
-  </si>
-  <si>
-    <t>Select a Valid Daily Time</t>
-  </si>
-  <si>
     <t>Select a Day</t>
   </si>
   <si>
     <t>ErrorMsg6</t>
   </si>
   <si>
-    <t>Select a Valid Weekly Time</t>
-  </si>
-  <si>
     <t>Select a Monthly Date</t>
   </si>
   <si>
     <t>ErrorMsg7</t>
   </si>
   <si>
-    <t>Select a Valid Monthly Time</t>
-  </si>
-  <si>
     <t>ErrorMsg8</t>
   </si>
   <si>
     <t>Select the start time</t>
-  </si>
-  <si>
-    <t>Select the End Time</t>
   </si>
   <si>
     <t>ErrorMsg9</t>
@@ -195,6 +171,21 @@
    ,[StartTime] as 'Start Time'
       ,[LastChangedOn] as 'Last Changed On'
   FROM [CMM_Report_Scheduler]</t>
+  </si>
+  <si>
+    <t>Please Provide Name</t>
+  </si>
+  <si>
+    <t>Please Provide Schedule Frequency</t>
+  </si>
+  <si>
+    <t>Please Provide Time</t>
+  </si>
+  <si>
+    <t>Please Provide Reports to Schedule</t>
+  </si>
+  <si>
+    <t>palak.garg@tetherfi.com</t>
   </si>
 </sst>
 </file>
@@ -246,9 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,7 +523,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,7 +534,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,172 +567,170 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
       <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
       <c r="R1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>27</v>
+      <c r="I2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>36</v>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>39</v>
+      <c r="Q5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B3:B5" r:id="rId2" display="palak.garg@tetherfi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -751,11 +739,12 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
@@ -777,59 +766,60 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2" display="palak.garg@tetherfi.com"/>
+    <hyperlink ref="J2" r:id="rId1" display="palak.garg@tetherfi.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -838,7 +828,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,114 +854,112 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B3:B5" r:id="rId2" display="palak.garg@tetherfi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -982,7 +970,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,12 +980,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="2" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
+++ b/ocms/src/test/resources/TestData/ExportSchedulerData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14415" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J12"/>
+  <oleSize ref="A1:J10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,7 +185,7 @@
     <t>Please Provide Reports to Schedule</t>
   </si>
   <si>
-    <t>palak.garg@tetherfi.com</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="palak.garg@tetherfi.com"/>
     <hyperlink ref="B3:B5" r:id="rId2" display="palak.garg@tetherfi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="palak.garg@tetherfi.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="palak.garg@tetherfi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -828,7 +828,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="C11" sqref="C11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,7 +886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -909,7 +909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -958,7 +958,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="palak.garg@tetherfi.com"/>
     <hyperlink ref="B3:B5" r:id="rId2" display="palak.garg@tetherfi.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
